--- a/Libraries/Vehicle/Linkage/DW_B/sm_car_data_Linkage_DW_B.xlsx
+++ b/Libraries/Vehicle/Linkage/DW_B/sm_car_data_Linkage_DW_B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Linkage\DW_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA050F43-E3F0-41DA-95A3-1E184A6BDDDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5765AA8-ED9E-4FDC-881B-64E29B8DA029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="868" activeTab="2" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="868" activeTab="1" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
   </bookViews>
   <sheets>
     <sheet name="DWB_Sedan_HambaLG_f" sheetId="8" r:id="rId1"/>
@@ -26,7 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -283,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -338,6 +343,8 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,7 +764,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,26 +773,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A81E87AA-A8D4-427F-8F4F-32399FC91376}">
   <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H14"/>
+      <selection activeCell="F24" sqref="F24:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -805,7 +812,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -819,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -836,7 +843,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -855,7 +862,7 @@
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -889,7 +896,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -921,7 +928,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -953,7 +960,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -972,7 +979,7 @@
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1013,7 @@
         <v>0.51255285714285714</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
@@ -1038,7 +1045,7 @@
         <v>0.53609214285714291</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -1070,7 +1077,7 @@
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -1086,7 +1093,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1120,7 +1127,7 @@
         <v>0.42648357142857141</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -1152,7 +1159,7 @@
         <v>0.36214285714285716</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -1168,7 +1175,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -1184,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -1200,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -1219,7 +1226,7 @@
       </c>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -1238,7 +1245,7 @@
       </c>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -1255,7 +1262,7 @@
       </c>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -1268,20 +1275,20 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G21" s="14">
-        <v>0.52560000000000007</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0.37421428571428578</v>
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0.65</v>
+      </c>
+      <c r="H21" s="34">
+        <v>0.24</v>
       </c>
       <c r="J21" s="33" t="s">
         <v>49</v>
       </c>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>14</v>
@@ -1294,17 +1301,17 @@
       <c r="F22" s="14">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G22" s="11">
-        <v>0.86560000000000004</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0.37421428571428578</v>
+      <c r="G22" s="34">
+        <v>0.91</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0.23</v>
       </c>
       <c r="L22" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>12</v>
@@ -1323,7 +1330,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>30</v>
       </c>
@@ -1338,11 +1345,11 @@
       <c r="F24" s="28">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G24" s="28">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H24" s="28">
-        <v>0.72138857142857149</v>
+      <c r="G24" s="34">
+        <v>0.62</v>
+      </c>
+      <c r="H24" s="34">
+        <v>0.65</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>32</v>
@@ -1353,14 +1360,14 @@
       </c>
       <c r="M24" s="32">
         <f>G24</f>
-        <v>0.44059999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="N24" s="32">
         <f>H24</f>
-        <v>0.72138857142857149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="16" t="s">
         <v>33</v>
@@ -1373,11 +1380,11 @@
       <c r="F25" s="28">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G25" s="28">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H25" s="28">
-        <v>0.10791857142857141</v>
+      <c r="G25" s="34">
+        <v>0.85</v>
+      </c>
+      <c r="H25" s="34">
+        <v>0.19</v>
       </c>
       <c r="L25" s="32">
         <f>-F25</f>
@@ -1385,14 +1392,14 @@
       </c>
       <c r="M25" s="32">
         <f>G25</f>
-        <v>0.7700999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="N25" s="32">
         <f>H25</f>
-        <v>0.10791857142857141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>34</v>
@@ -1408,7 +1415,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>35</v>
@@ -1424,7 +1431,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>36</v>
       </c>
@@ -1445,7 +1452,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="18" t="s">
         <v>39</v>
@@ -1461,7 +1468,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>40</v>
       </c>
@@ -1477,7 +1484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>42</v>
       </c>
@@ -1521,27 +1528,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B909133-56D4-4624-82D5-E52D30D110E2}">
   <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1561,7 +1568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -1575,7 +1582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1589,7 +1596,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1603,7 +1610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1625,7 +1632,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -1645,7 +1652,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -1665,7 +1672,7 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -1681,7 +1688,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -1703,7 +1710,7 @@
         <v>0.51255285714285714</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
@@ -1723,7 +1730,7 @@
         <v>0.53609214285714291</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -1743,7 +1750,7 @@
         <v>0.54321428571428576</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -1759,7 +1766,7 @@
         <v>5.4538000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1781,7 +1788,7 @@
         <v>0.42648357142857141</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -1801,7 +1808,7 @@
         <v>0.36214285714285716</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -1817,7 +1824,7 @@
         <v>7.0371699999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -1834,7 +1841,7 @@
       </c>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -1850,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -1869,7 +1876,7 @@
       </c>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -1888,7 +1895,7 @@
       </c>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -1906,7 +1913,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -1919,19 +1926,19 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0.30999999999999994</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0.50249999999999995</v>
+        <v>0.13</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0.65</v>
+      </c>
+      <c r="H21" s="34">
+        <v>0.24</v>
       </c>
       <c r="J21" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>14</v>
@@ -1942,16 +1949,16 @@
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="11">
-        <v>-1.293571428571426E-3</v>
-      </c>
-      <c r="G22" s="11">
-        <v>0.89495000000000002</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0.36588500000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.13</v>
+      </c>
+      <c r="G22" s="34">
+        <v>0.91</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>12</v>
@@ -1967,7 +1974,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>30</v>
       </c>
@@ -1979,20 +1986,20 @@
         <v>12</v>
       </c>
       <c r="E24" s="10"/>
-      <c r="F24" s="28">
+      <c r="F24" s="35">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G24" s="28">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H24" s="28">
-        <v>0.72138857142857149</v>
+      <c r="G24" s="34">
+        <v>0.62</v>
+      </c>
+      <c r="H24" s="34">
+        <v>0.65</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="16" t="s">
         <v>33</v>
@@ -2002,17 +2009,17 @@
         <v>12</v>
       </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="28">
+      <c r="F25" s="35">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G25" s="28">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H25" s="28">
-        <v>0.10791857142857141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G25" s="34">
+        <v>0.85</v>
+      </c>
+      <c r="H25" s="34">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>34</v>
@@ -2028,7 +2035,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>35</v>
@@ -2044,7 +2051,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>36</v>
       </c>
@@ -2065,7 +2072,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="18" t="s">
         <v>39</v>
@@ -2081,7 +2088,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>40</v>
       </c>
@@ -2097,7 +2104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>42</v>
       </c>
@@ -2142,28 +2149,28 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43863C06-7FA5-4D56-B21C-9CA20F8E5434}">
   <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2183,7 +2190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2198,7 +2205,7 @@
       </c>
       <c r="J2" s="23"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2216,7 +2223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2236,7 +2243,7 @@
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -2249,29 +2256,29 @@
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="14">
-        <v>0.24780000000000002</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="G5" s="14">
-        <v>0.23499999999999999</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="H5" s="14">
-        <v>0.15820000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J5" s="14"/>
       <c r="L5" s="31">
         <f>-F6</f>
-        <v>0.1522</v>
+        <v>0.125</v>
       </c>
       <c r="M5" s="31">
         <f>G6</f>
-        <v>0.23499999999999999</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="N5" s="31">
         <f>H6</f>
-        <v>0.20319999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -2282,29 +2289,29 @@
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="14">
-        <v>-0.1522</v>
+        <v>-0.125</v>
       </c>
       <c r="G6" s="14">
-        <v>0.23499999999999999</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="H6" s="14">
-        <v>0.20319999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="J6" s="23"/>
       <c r="L6" s="31">
         <f>-F5</f>
-        <v>-0.24780000000000002</v>
+        <v>-0.22500000000000001</v>
       </c>
       <c r="M6" s="31">
         <f>G5</f>
-        <v>0.23499999999999999</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="N6" s="31">
         <f>H5</f>
-        <v>0.15820000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -2315,29 +2322,29 @@
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="14">
-        <v>4.3799999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G7" s="14">
-        <v>0.6915</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="H7" s="14">
-        <v>0.15620000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="J7" s="24"/>
       <c r="L7" s="31">
         <f>-F7</f>
-        <v>-4.3799999999999999E-2</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="M7" s="31">
         <f t="shared" ref="M7:N7" si="0">G7</f>
-        <v>0.6915</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="N7" s="31">
         <f t="shared" si="0"/>
-        <v>0.15620000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -2357,7 +2364,7 @@
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -2370,29 +2377,29 @@
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="14">
-        <v>0.13780000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="G9" s="14">
-        <v>0.42499999999999999</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H9" s="14">
-        <v>0.44409999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="J9" s="14"/>
       <c r="L9" s="31">
         <f>-F10</f>
-        <v>0.1522</v>
+        <v>0.105</v>
       </c>
       <c r="M9" s="31">
         <f>G10</f>
-        <v>0.42499999999999999</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="N9" s="31">
         <f>H10</f>
-        <v>0.42459999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
@@ -2403,29 +2410,29 @@
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="14">
-        <v>-0.1522</v>
+        <v>-0.105</v>
       </c>
       <c r="G10" s="14">
-        <v>0.42499999999999999</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="H10" s="14">
-        <v>0.42459999999999998</v>
+        <v>0.41</v>
       </c>
       <c r="J10" s="23"/>
       <c r="L10" s="31">
         <f>-F9</f>
-        <v>-0.13780000000000001</v>
+        <v>-0.1</v>
       </c>
       <c r="M10" s="31">
         <f>G9</f>
-        <v>0.42499999999999999</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="N10" s="31">
         <f>H9</f>
-        <v>0.44409999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -2457,7 +2464,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -2473,7 +2480,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -2486,28 +2493,28 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="14">
-        <v>7.8000000000000014E-3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="14">
-        <v>0.68889999999999996</v>
+        <v>0.73</v>
       </c>
       <c r="H13" s="14">
-        <v>0.35329999999999995</v>
+        <v>0.33</v>
       </c>
       <c r="L13" s="31">
         <f>-F13</f>
-        <v>-7.8000000000000014E-3</v>
+        <v>0</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" ref="M13:N14" si="2">G13</f>
-        <v>0.68889999999999996</v>
+        <v>0.73</v>
       </c>
       <c r="N13" s="31">
         <f t="shared" si="2"/>
-        <v>0.35329999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -2521,10 +2528,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="24">
-        <v>0.78649999999999998</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="H14" s="14">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="L14" s="31">
         <f>-F14</f>
@@ -2532,14 +2539,14 @@
       </c>
       <c r="M14" s="31">
         <f t="shared" si="2"/>
-        <v>0.78649999999999998</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="N14" s="31">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -2555,7 +2562,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -2571,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -2587,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -2606,7 +2613,7 @@
       </c>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -2625,7 +2632,7 @@
       </c>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -2642,7 +2649,7 @@
       </c>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -2655,20 +2662,20 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="14">
-        <v>0.24779999999999999</v>
+        <v>0.13708300000000001</v>
       </c>
       <c r="G21" s="14">
-        <v>0.32</v>
+        <v>0.439</v>
       </c>
       <c r="H21" s="14">
-        <v>0.31</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="J21" s="33" t="s">
         <v>49</v>
       </c>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>14</v>
@@ -2679,20 +2686,20 @@
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="14">
-        <v>0.15379999999999999</v>
+        <v>0.14208299999999999</v>
       </c>
       <c r="G22" s="14">
-        <v>0.66</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="H22" s="14">
-        <v>0.31</v>
+        <v>0.185</v>
       </c>
       <c r="J22" s="23"/>
       <c r="L22" s="30" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>12</v>
@@ -2711,7 +2718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>30</v>
       </c>
@@ -2724,31 +2731,32 @@
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="29">
-        <v>-2.2000000000000006E-3</v>
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
       </c>
       <c r="G24" s="29">
-        <v>0.23499999999999999</v>
+        <v>0.49198500000000001</v>
       </c>
       <c r="H24" s="29">
-        <v>0.59760000000000002</v>
+        <v>0.52585999999999999</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L24" s="32">
         <f>-F24</f>
-        <v>2.2000000000000006E-3</v>
+        <v>-4.9783000000000001E-2</v>
       </c>
       <c r="M24" s="32">
         <f>G24</f>
-        <v>0.23499999999999999</v>
+        <v>0.49198500000000001</v>
       </c>
       <c r="N24" s="32">
         <f>H24</f>
-        <v>0.59760000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.52585999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="16" t="s">
         <v>33</v>
@@ -2759,28 +2767,29 @@
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="29">
-        <v>4.5700000000000005E-2</v>
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
       </c>
       <c r="G25" s="29">
-        <v>0.56449999999999989</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="H25" s="29">
-        <v>8.9399999999999966E-2</v>
+        <v>0.15</v>
       </c>
       <c r="L25" s="32">
         <f>-F25</f>
-        <v>-4.5700000000000005E-2</v>
+        <v>-4.9783000000000001E-2</v>
       </c>
       <c r="M25" s="32">
         <f>G25</f>
-        <v>0.56449999999999989</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="N25" s="32">
         <f>H25</f>
-        <v>8.9399999999999966E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>34</v>
@@ -2796,7 +2805,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>35</v>
@@ -2812,7 +2821,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>36</v>
       </c>
@@ -2833,7 +2842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="18" t="s">
         <v>39</v>
@@ -2846,10 +2855,10 @@
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
       <c r="H29" s="14">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>40</v>
       </c>
@@ -2865,7 +2874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>42</v>
       </c>
@@ -2910,28 +2919,28 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6596A4DF-27EE-4D62-82A2-4C2584271E08}">
   <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2951,7 +2960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2965,7 +2974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2982,7 +2991,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3003,7 +3012,7 @@
       <c r="M4" s="30"/>
       <c r="N4" s="30"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -3039,7 +3048,7 @@
         <v>0.2338615</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -3073,7 +3082,7 @@
         <v>0.28386149999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -3107,7 +3116,7 @@
         <v>0.29246149999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -3128,7 +3137,7 @@
       <c r="M8" s="30"/>
       <c r="N8" s="30"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -3144,10 +3153,10 @@
         <v>0.24780000000000002</v>
       </c>
       <c r="G9" s="14">
-        <v>0.33500000000000008</v>
+        <v>0.52</v>
       </c>
       <c r="H9" s="14">
-        <v>0.78386149999999999</v>
+        <v>0.68656149999999994</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="23"/>
@@ -3157,14 +3166,14 @@
       </c>
       <c r="M9" s="31">
         <f>G10</f>
-        <v>0.28500000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="N9" s="31">
         <f>H10</f>
-        <v>0.83386149999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.68656149999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
@@ -3178,10 +3187,10 @@
         <v>-0.1522</v>
       </c>
       <c r="G10" s="14">
-        <v>0.28500000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="H10" s="14">
-        <v>0.83386149999999992</v>
+        <v>0.68656149999999994</v>
       </c>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
@@ -3191,14 +3200,14 @@
       </c>
       <c r="M10" s="31">
         <f>G9</f>
-        <v>0.33500000000000008</v>
+        <v>0.52</v>
       </c>
       <c r="N10" s="31">
         <f>H9</f>
-        <v>0.78386149999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.68656149999999994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -3232,7 +3241,7 @@
         <v>0.68656149999999994</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -3250,7 +3259,7 @@
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -3286,7 +3295,7 @@
         <v>0.48956149999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -3320,7 +3329,7 @@
         <v>0.46136149999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -3338,7 +3347,7 @@
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -3356,7 +3365,7 @@
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -3374,7 +3383,7 @@
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -3394,7 +3403,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="23"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -3414,7 +3423,7 @@
       <c r="J19" s="27"/>
       <c r="K19" s="23"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -3432,7 +3441,7 @@
       <c r="J20" s="27"/>
       <c r="K20" s="23"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
@@ -3445,13 +3454,13 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="14">
-        <v>0.3478</v>
+        <v>0.2238</v>
       </c>
       <c r="G21" s="14">
         <v>0.36</v>
       </c>
       <c r="H21" s="14">
-        <v>0.6113615</v>
+        <v>0.33</v>
       </c>
       <c r="J21" s="33" t="s">
         <v>49</v>
@@ -3459,7 +3468,7 @@
       <c r="K21" s="23"/>
       <c r="L21" s="22"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>14</v>
@@ -3476,7 +3485,7 @@
         <v>0.75080000000000002</v>
       </c>
       <c r="H22" s="14">
-        <v>0.60473149999999998</v>
+        <v>0.32</v>
       </c>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
@@ -3484,7 +3493,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>12</v>
@@ -3503,7 +3512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>30</v>
       </c>
@@ -3516,31 +3525,32 @@
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="14">
-        <v>-2.2000000000000006E-3</v>
+        <f>-0.0022+0.02</f>
+        <v>1.78E-2</v>
       </c>
       <c r="G24" s="14">
-        <v>0.23499999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="H24" s="14">
-        <v>0.73386150000000006</v>
+        <v>0.73380000000000001</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>32</v>
       </c>
       <c r="L24" s="32">
         <f>-F24</f>
-        <v>2.2000000000000006E-3</v>
+        <v>-1.78E-2</v>
       </c>
       <c r="M24" s="32">
         <f>G24</f>
-        <v>0.23499999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="N24" s="32">
         <f>H24</f>
-        <v>0.73386150000000006</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.73380000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="16" t="s">
         <v>33</v>
@@ -3551,28 +3561,29 @@
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="14">
-        <v>4.5700000000000005E-2</v>
+        <f>0.0457+0.02</f>
+        <v>6.5699999999999995E-2</v>
       </c>
       <c r="G25" s="14">
-        <v>0.56449999999999989</v>
+        <v>0.74</v>
       </c>
       <c r="H25" s="14">
-        <v>0.22566150000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="L25" s="32">
         <f>-F25</f>
-        <v>-4.5700000000000005E-2</v>
+        <v>-6.5699999999999995E-2</v>
       </c>
       <c r="M25" s="32">
         <f>G25</f>
-        <v>0.56449999999999989</v>
+        <v>0.74</v>
       </c>
       <c r="N25" s="32">
         <f>H25</f>
-        <v>0.22566150000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>34</v>
@@ -3588,7 +3599,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>35</v>
@@ -3604,7 +3615,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>36</v>
       </c>
@@ -3625,7 +3636,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="18" t="s">
         <v>39</v>
@@ -3638,10 +3649,10 @@
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
       <c r="H29" s="11">
-        <v>-0.15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>40</v>
       </c>
@@ -3657,7 +3668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>42</v>
       </c>

--- a/Libraries/Vehicle/Linkage/DW_B/sm_car_data_Linkage_DW_B.xlsx
+++ b/Libraries/Vehicle/Linkage/DW_B/sm_car_data_Linkage_DW_B.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Linkage\DW_B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Linkage\DW_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5765AA8-ED9E-4FDC-881B-64E29B8DA029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C710CAA5-2B74-4FC1-BD04-E3684717171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="868" activeTab="1" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="913" firstSheet="1" activeTab="4" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
   </bookViews>
   <sheets>
     <sheet name="DWB_Sedan_HambaLG_f" sheetId="8" r:id="rId1"/>
     <sheet name="DW_Sedan_HambaLG_r" sheetId="9" r:id="rId2"/>
     <sheet name="DW_Sedan_Hamba_f" sheetId="7" r:id="rId3"/>
     <sheet name="DW_Bus_Makulu_f" sheetId="6" r:id="rId4"/>
+    <sheet name="DW_FSAE_Achilles_f" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="51">
   <si>
     <t>Units</t>
   </si>
@@ -189,6 +190,9 @@
   </si>
   <si>
     <t>Also in steering</t>
+  </si>
+  <si>
+    <t>DoubleWishbone_FSAE_Achilles_f</t>
   </si>
 </sst>
 </file>
@@ -232,7 +236,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +279,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -288,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -309,13 +319,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -332,31 +340,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -476,9 +472,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -516,7 +512,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -622,7 +618,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -764,7 +760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -783,7 +779,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="5" width="11.140625" customWidth="1"/>
@@ -832,14 +828,12 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="23" t="s">
         <v>47</v>
       </c>
     </row>
@@ -856,11 +850,11 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -873,25 +867,24 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>0.29913000000000006</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>0.19097000000000003</v>
       </c>
-      <c r="L5" s="31">
+      <c r="L5" s="24">
         <f>-F6</f>
         <v>0.18372714285714289</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="24">
         <f>G6</f>
         <v>0.44059999999999999</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="24">
         <f>H6</f>
         <v>0.2452914285714286</v>
       </c>
@@ -905,25 +898,24 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>-0.18372714285714289</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>0.2452914285714286</v>
       </c>
-      <c r="L6" s="31">
+      <c r="L6" s="24">
         <f>-F5</f>
         <v>-0.29913000000000006</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="24">
         <f>G5</f>
         <v>0.44059999999999999</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="24">
         <f>H5</f>
         <v>0.19097000000000003</v>
       </c>
@@ -937,25 +929,24 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>5.2872857142857145E-2</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="24">
         <f>-F7</f>
         <v>-5.2872857142857145E-2</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="24">
         <f t="shared" ref="M7:N7" si="0">G7</f>
         <v>0.89710000000000001</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="24">
         <f t="shared" si="0"/>
         <v>0.18855571428571433</v>
       </c>
@@ -969,15 +960,14 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>5.8056599999999996</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -990,25 +980,24 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0.16634428571428575</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>0.53609214285714291</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="24">
         <f>-F10</f>
         <v>0.18372714285714289</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="24">
         <f>G10</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="24">
         <f>H10</f>
         <v>0.51255285714285714</v>
       </c>
@@ -1022,25 +1011,24 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>-0.18372714285714289</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>0.51255285714285714</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="24">
         <f>-F9</f>
         <v>-0.16634428571428575</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="24">
         <f>G9</f>
         <v>0.63060000000000005</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="24">
         <f>H9</f>
         <v>0.53609214285714291</v>
       </c>
@@ -1054,25 +1042,24 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>-4.8285714285714293E-2</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="24">
         <f>-F11</f>
         <v>4.8285714285714293E-2</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="24">
         <f t="shared" ref="M11" si="1">G11</f>
         <v>0.89280000000000004</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="24">
         <f t="shared" ref="N11" si="2">H11</f>
         <v>0.54321428571428576</v>
       </c>
@@ -1086,10 +1073,9 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -1104,25 +1090,24 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>9.4157142857142894E-3</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>0.42648357142857141</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="24">
         <f>-F13</f>
         <v>-9.4157142857142894E-3</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="24">
         <f t="shared" ref="M13:N14" si="3">G13</f>
         <v>0.89449999999999996</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="24">
         <f t="shared" si="3"/>
         <v>0.42648357142857141</v>
       </c>
@@ -1136,25 +1121,24 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>0.36214285714285716</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="24">
         <f>-F14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="24">
         <f t="shared" si="3"/>
         <v>0.99209999999999998</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="24">
         <f t="shared" si="3"/>
         <v>0.36214285714285716</v>
       </c>
@@ -1168,10 +1152,9 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -1184,10 +1167,9 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1200,10 +1182,9 @@
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1213,18 +1194,17 @@
         <v>23</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <v>0.15</v>
       </c>
-      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1232,18 +1212,17 @@
         <v>25</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <v>0.05</v>
       </c>
-      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1251,42 +1230,39 @@
         <v>27</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <v>1.76</v>
       </c>
-      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="10">
         <v>0.65</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="10">
         <v>0.24</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1297,17 +1273,16 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="14">
+      <c r="F22" s="10">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="10">
         <v>0.91</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="10">
         <v>0.23</v>
       </c>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="23" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1320,81 +1295,78 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="28">
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="22">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="10">
         <v>0.62</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="10">
         <v>0.65</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="25">
         <f>-F24</f>
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="25">
         <f>G24</f>
         <v>0.62</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="25">
         <f>H24</f>
         <v>0.65</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="28">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="22">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="10">
         <v>0.85</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="10">
         <v>0.19</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="25">
         <f>-F25</f>
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="25">
         <f>G25</f>
         <v>0.85</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="25">
         <f>H25</f>
         <v>0.19</v>
       </c>
@@ -1405,13 +1377,12 @@
         <v>34</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -1421,50 +1392,47 @@
         <v>35</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="11">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="10">
         <v>0.1</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="11">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10">
         <v>-0.15</v>
       </c>
     </row>
@@ -1480,7 +1448,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1496,28 +1464,23 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="17" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E24:E27 A24:B29">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+  <conditionalFormatting sqref="A30:A31">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+  <conditionalFormatting sqref="A24:B29">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+  <conditionalFormatting sqref="E24:E29">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1532,13 +1495,13 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="5" width="11.140625" customWidth="1"/>
@@ -1574,11 +1537,9 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1588,11 +1549,9 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1621,14 +1580,13 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>0.18372714285714289</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>0.2452914285714286</v>
       </c>
     </row>
@@ -1641,14 +1599,13 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>-0.29913000000000006</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>0.19097000000000003</v>
       </c>
     </row>
@@ -1661,14 +1618,13 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>-5.2872857142857145E-2</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0.89710000000000001</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>0.18855571428571433</v>
       </c>
     </row>
@@ -1681,10 +1637,9 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -1699,14 +1654,13 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0.18372714285714289</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>0.51255285714285714</v>
       </c>
     </row>
@@ -1719,14 +1673,13 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>-0.16634428571428575</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>0.63060000000000005</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>0.53609214285714291</v>
       </c>
     </row>
@@ -1739,14 +1692,13 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>4.8285714285714293E-2</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>0.89280000000000004</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>0.54321428571428576</v>
       </c>
     </row>
@@ -1759,10 +1711,9 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>5.4538000000000002</v>
       </c>
     </row>
@@ -1777,14 +1728,13 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>-9.4157142857142894E-3</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>0.89449999999999996</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>0.42648357142857141</v>
       </c>
     </row>
@@ -1797,14 +1747,13 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>0.99209999999999998</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>0.36214285714285716</v>
       </c>
     </row>
@@ -1817,10 +1766,9 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>7.0371699999999997</v>
       </c>
     </row>
@@ -1833,13 +1781,12 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
-      <c r="I16" s="21"/>
+      <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -1850,10 +1797,9 @@
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1863,18 +1809,17 @@
         <v>23</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <v>0.15</v>
       </c>
-      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1882,18 +1827,17 @@
         <v>25</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <v>0.05</v>
       </c>
-      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1901,40 +1845,36 @@
         <v>27</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <v>1.76</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>0.13</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="10">
         <v>0.65</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="10">
         <v>0.24</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="26" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1947,14 +1887,13 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>0.13</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="10">
         <v>0.91</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="10">
         <v>0.23</v>
       </c>
     </row>
@@ -1967,55 +1906,52 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
         <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="35">
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="22">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="10">
         <v>0.62</v>
       </c>
-      <c r="H24" s="34">
+      <c r="H24" s="10">
         <v>0.65</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="35">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="22">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="10">
         <v>0.85</v>
       </c>
-      <c r="H25" s="34">
+      <c r="H25" s="10">
         <v>0.19</v>
       </c>
     </row>
@@ -2025,13 +1961,12 @@
         <v>34</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -2041,50 +1976,47 @@
         <v>35</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="11">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="10">
         <v>0.1</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="11">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10">
         <v>-0.15</v>
       </c>
     </row>
@@ -2100,7 +2032,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2116,28 +2048,23 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="17" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A30 A24:B29">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+  <conditionalFormatting sqref="A30:A31">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+  <conditionalFormatting sqref="A24:B29">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E27">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+  <conditionalFormatting sqref="E24:E29">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2159,7 +2086,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="5" width="11.140625" customWidth="1"/>
@@ -2203,7 +2130,6 @@
       <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="23"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -2211,15 +2137,12 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="23" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2236,12 +2159,11 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -2254,26 +2176,25 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>0.15</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="L5" s="31">
+      <c r="J5" s="10"/>
+      <c r="L5" s="24">
         <f>-F6</f>
         <v>0.125</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="24">
         <f>G6</f>
         <v>0.30599999999999999</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="24">
         <f>H6</f>
         <v>0.15</v>
       </c>
@@ -2287,26 +2208,24 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>-0.125</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>0.30599999999999999</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <v>0.15</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="L6" s="31">
+      <c r="L6" s="24">
         <f>-F5</f>
         <v>-0.22500000000000001</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="24">
         <f>G5</f>
         <v>0.30599999999999999</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="24">
         <f>H5</f>
         <v>0.15</v>
       </c>
@@ -2320,26 +2239,25 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>0.76600000000000001</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <v>0.15</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="L7" s="31">
+      <c r="J7" s="21"/>
+      <c r="L7" s="24">
         <f>-F7</f>
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="24">
         <f t="shared" ref="M7:N7" si="0">G7</f>
         <v>0.76600000000000001</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="24">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
@@ -2353,16 +2271,14 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14">
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>5.8056599999999996</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -2375,26 +2291,25 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>0.1</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>0.43</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="L9" s="31">
+      <c r="J9" s="10"/>
+      <c r="L9" s="24">
         <f>-F10</f>
         <v>0.105</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="24">
         <f>G10</f>
         <v>0.45100000000000001</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="24">
         <f>H10</f>
         <v>0.41</v>
       </c>
@@ -2408,26 +2323,24 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>-0.105</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>0.45100000000000001</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="10">
         <v>0.41</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="L10" s="31">
+      <c r="L10" s="24">
         <f>-F9</f>
         <v>-0.1</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="24">
         <f>G9</f>
         <v>0.45100000000000001</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="24">
         <f>H9</f>
         <v>0.43</v>
       </c>
@@ -2441,25 +2354,24 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>-0.04</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <v>0.68720000000000003</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="10">
         <v>0.45</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="24">
         <f>-F11</f>
         <v>0.04</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="24">
         <f t="shared" ref="M11:N11" si="1">G11</f>
         <v>0.68720000000000003</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="24">
         <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
@@ -2473,10 +2385,9 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -2491,25 +2402,24 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10">
         <v>0.73</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="10">
         <v>0.33</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="24">
         <f>-F13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="24">
         <f t="shared" ref="M13:N14" si="2">G13</f>
         <v>0.73</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="24">
         <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
@@ -2523,25 +2433,24 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="14">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="21">
         <v>0.78749999999999998</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="10">
         <v>0.33</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="24">
         <f>-F14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="24">
         <f t="shared" si="2"/>
         <v>0.78749999999999998</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="24">
         <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
@@ -2555,10 +2464,9 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -2571,10 +2479,9 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2587,10 +2494,9 @@
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2600,18 +2506,17 @@
         <v>23</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <v>0.15</v>
       </c>
-      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -2619,18 +2524,17 @@
         <v>25</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <v>0.05</v>
       </c>
-      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -2638,42 +2542,39 @@
         <v>27</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <v>1.76</v>
       </c>
-      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>0.13708300000000001</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="10">
         <v>0.439</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="10">
         <v>0.20499999999999999</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="22"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -2684,18 +2585,16 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="14">
+      <c r="F22" s="10">
         <v>0.14208299999999999</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="10">
         <v>0.78900000000000003</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="10">
         <v>0.185</v>
       </c>
-      <c r="J22" s="23"/>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="23" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2708,83 +2607,80 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="29">
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="22">
         <f>-0.000217+0.05</f>
         <v>4.9783000000000001E-2</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="22">
         <v>0.49198500000000001</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="22">
         <v>0.52585999999999999</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="25">
         <f>-F24</f>
         <v>-4.9783000000000001E-2</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="25">
         <f>G24</f>
         <v>0.49198500000000001</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="25">
         <f>H24</f>
         <v>0.52585999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="29">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="22">
         <f>-0.000217+0.05</f>
         <v>4.9783000000000001E-2</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="22">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H25" s="22">
         <v>0.15</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="25">
         <f>-F25</f>
         <v>-4.9783000000000001E-2</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="25">
         <f>G25</f>
         <v>0.71599999999999997</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="25">
         <f>H25</f>
         <v>0.15</v>
       </c>
@@ -2795,13 +2691,12 @@
         <v>34</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -2811,50 +2706,47 @@
         <v>35</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="14">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="10">
         <v>0.1</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="14">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10">
         <v>-0.1</v>
       </c>
     </row>
@@ -2870,7 +2762,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2886,28 +2778,23 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="17" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E24:E27 A24:B29">
+  <conditionalFormatting sqref="A30:A31">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:B29">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
+  <conditionalFormatting sqref="E24:E29">
     <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2929,7 +2816,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="5" width="11.140625" customWidth="1"/>
@@ -2980,14 +2867,12 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="23" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3004,13 +2889,11 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -3023,27 +2906,25 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14">
+      <c r="F5" s="10">
         <v>0.24780000000000002</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="10">
         <v>0.23499999999999999</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="10">
         <v>0.28386149999999999</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="31">
+      <c r="J5" s="10"/>
+      <c r="L5" s="24">
         <f>-F6</f>
         <v>0.1522</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="24">
         <f>G6</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="24">
         <f>H6</f>
         <v>0.2338615</v>
       </c>
@@ -3057,27 +2938,24 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>-0.1522</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="10">
         <v>0.23499999999999999</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="10">
         <v>0.2338615</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="31">
+      <c r="L6" s="24">
         <f>-F5</f>
         <v>-0.24780000000000002</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="24">
         <f>G5</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="24">
         <f>H5</f>
         <v>0.28386149999999999</v>
       </c>
@@ -3091,27 +2969,25 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>4.3800000000000006E-2</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="10">
         <v>0.79500000000000004</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="10">
         <v>0.29246149999999999</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="31">
+      <c r="J7" s="21"/>
+      <c r="L7" s="24">
         <f>-F7</f>
         <v>-4.3800000000000006E-2</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="24">
         <f t="shared" ref="M7:N7" si="0">G7</f>
         <v>0.79500000000000004</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="24">
         <f t="shared" si="0"/>
         <v>0.29246149999999999</v>
       </c>
@@ -3125,17 +3001,14 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14">
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>5.8056599999999996</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -3148,27 +3021,25 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14">
+      <c r="F9" s="10">
         <v>0.24780000000000002</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="10">
         <v>0.52</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="10">
         <v>0.68656149999999994</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="31">
+      <c r="J9" s="10"/>
+      <c r="L9" s="24">
         <f>-F10</f>
         <v>0.1522</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="24">
         <f>G10</f>
         <v>0.52</v>
       </c>
-      <c r="N9" s="31">
+      <c r="N9" s="24">
         <f>H10</f>
         <v>0.68656149999999994</v>
       </c>
@@ -3182,27 +3053,24 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14">
+      <c r="F10" s="10">
         <v>-0.1522</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="10">
         <v>0.52</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="10">
         <v>0.68656149999999994</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="31">
+      <c r="L10" s="24">
         <f>-F9</f>
         <v>-0.24780000000000002</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="24">
         <f>G9</f>
         <v>0.52</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="24">
         <f>H9</f>
         <v>0.68656149999999994</v>
       </c>
@@ -3216,27 +3084,24 @@
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14">
+      <c r="F11" s="10">
         <v>-0.04</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="10">
         <v>0.79070000000000007</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="10">
         <v>0.68656149999999994</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="31">
+      <c r="L11" s="24">
         <f>-F11</f>
         <v>0.04</v>
       </c>
-      <c r="M11" s="31">
+      <c r="M11" s="24">
         <f t="shared" ref="M11:N11" si="1">G11</f>
         <v>0.79070000000000007</v>
       </c>
-      <c r="N11" s="31">
+      <c r="N11" s="24">
         <f t="shared" si="1"/>
         <v>0.68656149999999994</v>
       </c>
@@ -3250,14 +3115,11 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -3270,27 +3132,24 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <v>7.8000000000000014E-3</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="10">
         <v>0.79239999999999999</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="10">
         <v>0.48956149999999998</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="31">
+      <c r="L13" s="24">
         <f>-F13</f>
         <v>-7.8000000000000014E-3</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="24">
         <f t="shared" ref="M13:N14" si="2">G13</f>
         <v>0.79239999999999999</v>
       </c>
-      <c r="N13" s="31">
+      <c r="N13" s="24">
         <f t="shared" si="2"/>
         <v>0.48956149999999998</v>
       </c>
@@ -3304,27 +3163,25 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="14">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="10">
         <v>0.9829099</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="10">
         <v>0.46136149999999998</v>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="31">
+      <c r="J14" s="20"/>
+      <c r="L14" s="24">
         <f>-F14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="31">
+      <c r="M14" s="24">
         <f t="shared" si="2"/>
         <v>0.9829099</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N14" s="24">
         <f t="shared" si="2"/>
         <v>0.46136149999999998</v>
       </c>
@@ -3338,14 +3195,11 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -3356,14 +3210,11 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -3374,14 +3225,11 @@
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <v>0</v>
       </c>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
@@ -3389,19 +3237,17 @@
         <v>23</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <v>0.25</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="23"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -3409,19 +3255,17 @@
         <v>25</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <v>0.1</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="23"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -3429,44 +3273,39 @@
         <v>27</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <v>1.76</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="23"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="26" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="14">
+      <c r="F21" s="10">
         <v>0.2238</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="10">
         <v>0.36</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="10">
         <v>0.33</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="23"/>
-      <c r="L21" s="22"/>
+      <c r="L21" s="20"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -3477,19 +3316,16 @@
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="14">
+      <c r="F22" s="10">
         <v>0.21380000000000002</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="10">
         <v>0.75080000000000002</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="10">
         <v>0.32</v>
       </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="30" t="s">
+      <c r="L22" s="23" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3502,83 +3338,80 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L23" s="30" t="s">
+      <c r="L23" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="14">
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="10">
         <f>-0.0022+0.02</f>
         <v>1.78E-2</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="10">
         <v>0.68</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="10">
         <v>0.73380000000000001</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="25">
         <f>-F24</f>
         <v>-1.78E-2</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="25">
         <f>G24</f>
         <v>0.68</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="25">
         <f>H24</f>
         <v>0.73380000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="14">
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="10">
         <f>0.0457+0.02</f>
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="10">
         <v>0.74</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L25" s="32">
+      <c r="L25" s="25">
         <f>-F25</f>
         <v>-6.5699999999999995E-2</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="25">
         <f>G25</f>
         <v>0.74</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="25">
         <f>H25</f>
         <v>0.28999999999999998</v>
       </c>
@@ -3589,13 +3422,12 @@
         <v>34</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -3605,50 +3437,47 @@
         <v>35</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="11">
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="10">
         <v>0.1</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="16" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="11">
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10">
         <v>-0.1</v>
       </c>
     </row>
@@ -3664,7 +3493,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="19" t="s">
+      <c r="H30" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3680,28 +3509,751 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="19" t="s">
+      <c r="H31" s="17" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E24:E27 A24:B29">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="A30:A31">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="A24:B29">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="E24:E29">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E499C5-DF72-445F-893F-77DA81B9CAF3}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10">
+        <v>6.6239999999999993E-2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.16783000000000001</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.11957</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="L5" s="24">
+        <f>-F6</f>
+        <v>0.11</v>
+      </c>
+      <c r="M5" s="24">
+        <f>G6</f>
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="N5" s="24">
+        <f>H6</f>
+        <v>0.11957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-0.11</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.18820000000000001</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.11957</v>
+      </c>
+      <c r="L6" s="24">
+        <f>-F5</f>
+        <v>-6.6239999999999993E-2</v>
+      </c>
+      <c r="M6" s="24">
+        <f>G5</f>
+        <v>0.16783000000000001</v>
+      </c>
+      <c r="N6" s="24">
+        <f>H5</f>
+        <v>0.11957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.58015000000000005</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.15789</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="L7" s="24">
+        <f>-F7</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" ref="M7:N7" si="0">G7</f>
+        <v>0.58015000000000005</v>
+      </c>
+      <c r="N7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.15789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="27">
+        <v>5.8056599999999996</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="10">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.24857000000000001</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="L9" s="24">
+        <f>-F10</f>
+        <v>0.12769</v>
+      </c>
+      <c r="M9" s="24">
+        <f>G10</f>
+        <v>0.26199</v>
+      </c>
+      <c r="N9" s="24">
+        <f>H10</f>
+        <v>0.22857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10">
+        <v>-0.12769</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.26199</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.22857</v>
+      </c>
+      <c r="L10" s="24">
+        <f>-F9</f>
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="M10" s="24">
+        <f>G9</f>
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="N10" s="24">
+        <f>H9</f>
+        <v>0.24857000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-0.03</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.56625999999999999</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.31677</v>
+      </c>
+      <c r="L11" s="24">
+        <f>-F11</f>
+        <v>0.03</v>
+      </c>
+      <c r="M11" s="24">
+        <f t="shared" ref="M11:N11" si="1">G11</f>
+        <v>0.56625999999999999</v>
+      </c>
+      <c r="N11" s="24">
+        <f t="shared" si="1"/>
+        <v>0.31677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="27">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="10">
+        <v>-1.4279999999999999E-2</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0.58972999999999998</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.22513</v>
+      </c>
+      <c r="L13" s="24">
+        <f>-F13</f>
+        <v>1.4279999999999999E-2</v>
+      </c>
+      <c r="M13" s="24">
+        <f t="shared" ref="M13:N14" si="2">G13</f>
+        <v>0.58972999999999998</v>
+      </c>
+      <c r="N13" s="24">
+        <f t="shared" si="2"/>
+        <v>0.22513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.23322999999999999</v>
+      </c>
+      <c r="L14" s="24">
+        <f>-F14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="24">
+        <f t="shared" si="2"/>
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="N14" s="24">
+        <f t="shared" si="2"/>
+        <v>0.23322999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
+        <v>1.0491900000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="10">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.11927</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.59245999999999999</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.15639</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="27">
+        <v>5.2778799999999997</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="22">
+        <v>-0.03</v>
+      </c>
+      <c r="G24" s="22">
+        <v>0.22</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="25">
+        <f>-F24</f>
+        <v>0.03</v>
+      </c>
+      <c r="M24" s="25">
+        <f>G24</f>
+        <v>0.22</v>
+      </c>
+      <c r="N24" s="25">
+        <f>H24</f>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="22">
+        <v>-0.03</v>
+      </c>
+      <c r="G25" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="H25" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="L25" s="25">
+        <f>-F25</f>
+        <v>0.03</v>
+      </c>
+      <c r="M25" s="25">
+        <f>G25</f>
+        <v>0.25</v>
+      </c>
+      <c r="N25" s="25">
+        <f>H25</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
+        <v>3.6529410000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
+        <v>4.3157700000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="10">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A30:A31">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24:B29">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E29">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Linkage/DW_B/sm_car_data_Linkage_DW_B.xlsx
+++ b/Libraries/Vehicle/Linkage/DW_B/sm_car_data_Linkage_DW_B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Linkage\DW_B\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\DW_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C710CAA5-2B74-4FC1-BD04-E3684717171A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4099C25-2AAA-43EB-9667-83B8C71F74A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="913" firstSheet="1" activeTab="4" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
+    <workbookView xWindow="43950" yWindow="0" windowWidth="13755" windowHeight="15585" tabRatio="913" activeTab="3" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
   </bookViews>
   <sheets>
     <sheet name="DWB_Sedan_HambaLG_f" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="50">
   <si>
     <t>Units</t>
   </si>
@@ -138,9 +138,6 @@
     <t>sTop</t>
   </si>
   <si>
-    <t>Also appears in Springs</t>
-  </si>
-  <si>
     <t>sBottom</t>
   </si>
   <si>
@@ -156,9 +153,6 @@
     <t>xMax</t>
   </si>
   <si>
-    <t>Also appears in Dampers</t>
-  </si>
-  <si>
     <t>xMin</t>
   </si>
   <si>
@@ -183,16 +177,19 @@
     <t>DoubleWishbone_Bus_Makhulu_f</t>
   </si>
   <si>
-    <t>Hardpoints mirrored front/rear about reference</t>
-  </si>
-  <si>
-    <t>Useful for rear axle</t>
-  </si>
-  <si>
-    <t>Also in steering</t>
-  </si>
-  <si>
     <t>DoubleWishbone_FSAE_Achilles_f</t>
+  </si>
+  <si>
+    <t>Must  be consistent with steering rack outboard point</t>
+  </si>
+  <si>
+    <t>Must be consistent with value in Dampers</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Spring</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Spring, Damper</t>
   </si>
 </sst>
 </file>
@@ -203,7 +200,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,14 +226,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,12 +267,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,18 +326,88 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -460,6 +515,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -771,10 +831,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:H25"/>
+      <selection activeCell="J24" sqref="J24:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,10 +845,10 @@
     <col min="4" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -808,7 +868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -822,7 +882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -831,13 +891,10 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -850,13 +907,8 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -876,20 +928,8 @@
       <c r="H5" s="10">
         <v>0.19097000000000003</v>
       </c>
-      <c r="L5" s="24">
-        <f>-F6</f>
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="M5" s="24">
-        <f>G6</f>
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="N5" s="24">
-        <f>H6</f>
-        <v>0.2452914285714286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -907,20 +947,8 @@
       <c r="H6" s="10">
         <v>0.2452914285714286</v>
       </c>
-      <c r="L6" s="24">
-        <f>-F5</f>
-        <v>-0.29913000000000006</v>
-      </c>
-      <c r="M6" s="24">
-        <f>G5</f>
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="N6" s="24">
-        <f>H5</f>
-        <v>0.19097000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -938,20 +966,8 @@
       <c r="H7" s="10">
         <v>0.18855571428571433</v>
       </c>
-      <c r="L7" s="24">
-        <f>-F7</f>
-        <v>-5.2872857142857145E-2</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" ref="M7:N7" si="0">G7</f>
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="N7" s="24">
-        <f t="shared" si="0"/>
-        <v>0.18855571428571433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -965,11 +981,8 @@
       <c r="H8" s="10">
         <v>5.8056599999999996</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -989,20 +1002,8 @@
       <c r="H9" s="10">
         <v>0.53609214285714291</v>
       </c>
-      <c r="L9" s="24">
-        <f>-F10</f>
-        <v>0.18372714285714289</v>
-      </c>
-      <c r="M9" s="24">
-        <f>G10</f>
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="N9" s="24">
-        <f>H10</f>
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
@@ -1020,20 +1021,8 @@
       <c r="H10" s="10">
         <v>0.51255285714285714</v>
       </c>
-      <c r="L10" s="24">
-        <f>-F9</f>
-        <v>-0.16634428571428575</v>
-      </c>
-      <c r="M10" s="24">
-        <f>G9</f>
-        <v>0.63060000000000005</v>
-      </c>
-      <c r="N10" s="24">
-        <f>H9</f>
-        <v>0.53609214285714291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -1051,20 +1040,8 @@
       <c r="H11" s="10">
         <v>0.54321428571428576</v>
       </c>
-      <c r="L11" s="24">
-        <f>-F11</f>
-        <v>4.8285714285714293E-2</v>
-      </c>
-      <c r="M11" s="24">
-        <f t="shared" ref="M11" si="1">G11</f>
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="N11" s="24">
-        <f t="shared" ref="N11" si="2">H11</f>
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -1079,7 +1056,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -1099,20 +1076,8 @@
       <c r="H13" s="10">
         <v>0.42648357142857141</v>
       </c>
-      <c r="L13" s="24">
-        <f>-F13</f>
-        <v>-9.4157142857142894E-3</v>
-      </c>
-      <c r="M13" s="24">
-        <f t="shared" ref="M13:N14" si="3">G13</f>
-        <v>0.89449999999999996</v>
-      </c>
-      <c r="N13" s="24">
-        <f t="shared" si="3"/>
-        <v>0.42648357142857141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -1130,20 +1095,8 @@
       <c r="H14" s="10">
         <v>0.36214285714285716</v>
       </c>
-      <c r="L14" s="24">
-        <f>-F14</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="24">
-        <f t="shared" si="3"/>
-        <v>0.99209999999999998</v>
-      </c>
-      <c r="N14" s="24">
-        <f t="shared" si="3"/>
-        <v>0.36214285714285716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -1158,7 +1111,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -1173,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -1188,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -1206,7 +1159,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -1224,7 +1177,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -1239,32 +1192,34 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="26">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="26">
         <v>0.65</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="26">
         <v>0.24</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>14</v>
@@ -1282,11 +1237,8 @@
       <c r="H22" s="10">
         <v>0.23</v>
       </c>
-      <c r="L22" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>12</v>
@@ -1300,11 +1252,8 @@
       <c r="H23" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L23" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
@@ -1315,66 +1264,51 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="22">
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="25">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="28">
         <v>0.62</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="28">
         <v>0.65</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="25">
-        <f>-F24</f>
-        <v>2.6557142857142869E-3</v>
-      </c>
-      <c r="M24" s="25">
-        <f>G24</f>
-        <v>0.62</v>
-      </c>
-      <c r="N24" s="25">
-        <f>H24</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="22">
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="25">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="28">
         <v>0.85</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="28">
         <v>0.19</v>
       </c>
-      <c r="L25" s="25">
-        <f>-F25</f>
-        <v>-5.5166428571428582E-2</v>
-      </c>
-      <c r="M25" s="25">
-        <f>G25</f>
-        <v>0.85</v>
-      </c>
-      <c r="N25" s="25">
-        <f>H25</f>
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J25" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
@@ -1386,10 +1320,10 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -1401,86 +1335,100 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
         <v>12</v>
       </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="10">
+      <c r="H28" s="27">
         <v>0.1</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="10">
+      <c r="H29" s="27">
         <v>-0.15</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J29" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A31">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B29">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:J29">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E29">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1496,7 +1444,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="J24" sqref="J24:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1455,7 @@
     <col min="4" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1552,7 +1500,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1858,24 +1806,27 @@
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="26">
         <v>0.13</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="26">
         <v>0.65</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="26">
         <v>0.24</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>49</v>
+      <c r="J21" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1923,42 +1874,51 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="22">
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="25">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="28">
         <v>0.62</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="28">
         <v>0.65</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="22">
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="25">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="28">
         <v>0.85</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="28">
         <v>0.19</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
@@ -1973,7 +1933,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -1987,42 +1947,51 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
         <v>12</v>
       </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="10">
+      <c r="H28" s="27">
         <v>0.1</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="10">
+      <c r="H29" s="27">
         <v>-0.15</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>8</v>
@@ -2033,12 +2002,12 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
@@ -2049,22 +2018,27 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A31">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B29">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:J29">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E29">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2078,10 +2052,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,12 +2066,11 @@
     <col min="4" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2117,7 +2090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2140,13 +2113,10 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2159,13 +2129,8 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -2186,20 +2151,8 @@
         <v>0.15</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="L5" s="24">
-        <f>-F6</f>
-        <v>0.125</v>
-      </c>
-      <c r="M5" s="24">
-        <f>G6</f>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="N5" s="24">
-        <f>H6</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -2217,20 +2170,8 @@
       <c r="H6" s="10">
         <v>0.15</v>
       </c>
-      <c r="L6" s="24">
-        <f>-F5</f>
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="M6" s="24">
-        <f>G5</f>
-        <v>0.30599999999999999</v>
-      </c>
-      <c r="N6" s="24">
-        <f>H5</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -2249,20 +2190,8 @@
         <v>0.15</v>
       </c>
       <c r="J7" s="21"/>
-      <c r="L7" s="24">
-        <f>-F7</f>
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" ref="M7:N7" si="0">G7</f>
-        <v>0.76600000000000001</v>
-      </c>
-      <c r="N7" s="24">
-        <f t="shared" si="0"/>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -2276,11 +2205,8 @@
       <c r="H8" s="10">
         <v>5.8056599999999996</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -2301,20 +2227,8 @@
         <v>0.43</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="L9" s="24">
-        <f>-F10</f>
-        <v>0.105</v>
-      </c>
-      <c r="M9" s="24">
-        <f>G10</f>
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="N9" s="24">
-        <f>H10</f>
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
@@ -2332,20 +2246,8 @@
       <c r="H10" s="10">
         <v>0.41</v>
       </c>
-      <c r="L10" s="24">
-        <f>-F9</f>
-        <v>-0.1</v>
-      </c>
-      <c r="M10" s="24">
-        <f>G9</f>
-        <v>0.45100000000000001</v>
-      </c>
-      <c r="N10" s="24">
-        <f>H9</f>
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -2363,20 +2265,8 @@
       <c r="H11" s="10">
         <v>0.45</v>
       </c>
-      <c r="L11" s="24">
-        <f>-F11</f>
-        <v>0.04</v>
-      </c>
-      <c r="M11" s="24">
-        <f t="shared" ref="M11:N11" si="1">G11</f>
-        <v>0.68720000000000003</v>
-      </c>
-      <c r="N11" s="24">
-        <f t="shared" si="1"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -2391,7 +2281,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -2411,20 +2301,8 @@
       <c r="H13" s="10">
         <v>0.33</v>
       </c>
-      <c r="L13" s="24">
-        <f>-F13</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="24">
-        <f t="shared" ref="M13:N14" si="2">G13</f>
-        <v>0.73</v>
-      </c>
-      <c r="N13" s="24">
-        <f t="shared" si="2"/>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -2442,20 +2320,8 @@
       <c r="H14" s="10">
         <v>0.33</v>
       </c>
-      <c r="L14" s="24">
-        <f>-F14</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="24">
-        <f t="shared" si="2"/>
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="N14" s="24">
-        <f t="shared" si="2"/>
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -2470,7 +2336,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -2485,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -2500,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -2518,7 +2384,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -2536,7 +2402,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -2551,32 +2417,34 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="26">
         <v>0.13708300000000001</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="26">
         <v>0.439</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="26">
         <v>0.20499999999999999</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>14</v>
@@ -2594,11 +2462,8 @@
       <c r="H22" s="10">
         <v>0.185</v>
       </c>
-      <c r="L22" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>12</v>
@@ -2612,11 +2477,8 @@
       <c r="H23" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L23" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
@@ -2627,68 +2489,53 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="22">
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="25">
         <f>-0.000217+0.05</f>
         <v>4.9783000000000001E-2</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="25">
         <v>0.49198500000000001</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="25">
         <v>0.52585999999999999</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="25">
-        <f>-F24</f>
-        <v>-4.9783000000000001E-2</v>
-      </c>
-      <c r="M24" s="25">
-        <f>G24</f>
-        <v>0.49198500000000001</v>
-      </c>
-      <c r="N24" s="25">
-        <f>H24</f>
-        <v>0.52585999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="22">
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="25">
         <f>-0.000217+0.05</f>
         <v>4.9783000000000001E-2</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="25">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="25">
         <v>0.15</v>
       </c>
-      <c r="L25" s="25">
-        <f>-F25</f>
-        <v>-4.9783000000000001E-2</v>
-      </c>
-      <c r="M25" s="25">
-        <f>G25</f>
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="N25" s="25">
-        <f>H25</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J25" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
@@ -2700,10 +2547,10 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -2715,86 +2562,100 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
         <v>12</v>
       </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="10">
+      <c r="H28" s="27">
         <v>0.1</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="10">
+      <c r="H29" s="27">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J29" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A31">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B29">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:J29">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E29">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2808,10 +2669,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2822,12 +2683,11 @@
     <col min="4" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2847,7 +2707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2861,7 +2721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2870,13 +2730,10 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2889,13 +2746,8 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -2916,20 +2768,8 @@
         <v>0.28386149999999999</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="L5" s="24">
-        <f>-F6</f>
-        <v>0.1522</v>
-      </c>
-      <c r="M5" s="24">
-        <f>G6</f>
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="N5" s="24">
-        <f>H6</f>
-        <v>0.2338615</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -2947,20 +2787,8 @@
       <c r="H6" s="10">
         <v>0.2338615</v>
       </c>
-      <c r="L6" s="24">
-        <f>-F5</f>
-        <v>-0.24780000000000002</v>
-      </c>
-      <c r="M6" s="24">
-        <f>G5</f>
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="N6" s="24">
-        <f>H5</f>
-        <v>0.28386149999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -2979,20 +2807,8 @@
         <v>0.29246149999999999</v>
       </c>
       <c r="J7" s="21"/>
-      <c r="L7" s="24">
-        <f>-F7</f>
-        <v>-4.3800000000000006E-2</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" ref="M7:N7" si="0">G7</f>
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="N7" s="24">
-        <f t="shared" si="0"/>
-        <v>0.29246149999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -3006,11 +2822,8 @@
       <c r="H8" s="10">
         <v>5.8056599999999996</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -3031,20 +2844,8 @@
         <v>0.68656149999999994</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="L9" s="24">
-        <f>-F10</f>
-        <v>0.1522</v>
-      </c>
-      <c r="M9" s="24">
-        <f>G10</f>
-        <v>0.52</v>
-      </c>
-      <c r="N9" s="24">
-        <f>H10</f>
-        <v>0.68656149999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
@@ -3062,20 +2863,8 @@
       <c r="H10" s="10">
         <v>0.68656149999999994</v>
       </c>
-      <c r="L10" s="24">
-        <f>-F9</f>
-        <v>-0.24780000000000002</v>
-      </c>
-      <c r="M10" s="24">
-        <f>G9</f>
-        <v>0.52</v>
-      </c>
-      <c r="N10" s="24">
-        <f>H9</f>
-        <v>0.68656149999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -3093,20 +2882,8 @@
       <c r="H11" s="10">
         <v>0.68656149999999994</v>
       </c>
-      <c r="L11" s="24">
-        <f>-F11</f>
-        <v>0.04</v>
-      </c>
-      <c r="M11" s="24">
-        <f t="shared" ref="M11:N11" si="1">G11</f>
-        <v>0.79070000000000007</v>
-      </c>
-      <c r="N11" s="24">
-        <f t="shared" si="1"/>
-        <v>0.68656149999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -3121,7 +2898,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -3141,20 +2918,8 @@
       <c r="H13" s="10">
         <v>0.48956149999999998</v>
       </c>
-      <c r="L13" s="24">
-        <f>-F13</f>
-        <v>-7.8000000000000014E-3</v>
-      </c>
-      <c r="M13" s="24">
-        <f t="shared" ref="M13:N14" si="2">G13</f>
-        <v>0.79239999999999999</v>
-      </c>
-      <c r="N13" s="24">
-        <f t="shared" si="2"/>
-        <v>0.48956149999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -3173,20 +2938,8 @@
         <v>0.46136149999999998</v>
       </c>
       <c r="J14" s="20"/>
-      <c r="L14" s="24">
-        <f>-F14</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="24">
-        <f t="shared" si="2"/>
-        <v>0.9829099</v>
-      </c>
-      <c r="N14" s="24">
-        <f t="shared" si="2"/>
-        <v>0.46136149999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -3201,7 +2954,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -3216,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -3231,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -3249,7 +3002,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -3267,7 +3020,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -3282,32 +3035,34 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="26">
         <v>0.2238</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="26">
         <v>0.36</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="26">
         <v>0.33</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>14</v>
@@ -3325,11 +3080,8 @@
       <c r="H22" s="10">
         <v>0.32</v>
       </c>
-      <c r="L22" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>12</v>
@@ -3343,11 +3095,8 @@
       <c r="H23" s="10">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L23" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
@@ -3358,68 +3107,53 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="10">
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="28">
         <f>-0.0022+0.02</f>
         <v>1.78E-2</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="28">
         <v>0.68</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="28">
         <v>0.73380000000000001</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="25">
-        <f>-F24</f>
-        <v>-1.78E-2</v>
-      </c>
-      <c r="M24" s="25">
-        <f>G24</f>
-        <v>0.68</v>
-      </c>
-      <c r="N24" s="25">
-        <f>H24</f>
-        <v>0.73380000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="10">
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="28">
         <f>0.0457+0.02</f>
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="28">
         <v>0.74</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="28">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L25" s="25">
-        <f>-F25</f>
-        <v>-6.5699999999999995E-2</v>
-      </c>
-      <c r="M25" s="25">
-        <f>G25</f>
-        <v>0.74</v>
-      </c>
-      <c r="N25" s="25">
-        <f>H25</f>
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J25" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
@@ -3431,10 +3165,10 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -3446,86 +3180,100 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
         <v>12</v>
       </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="10">
+      <c r="H28" s="27">
         <v>0.1</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="10">
+      <c r="H29" s="27">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J29" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A31">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B29">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:J29">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E29">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3539,10 +3287,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3553,12 +3301,11 @@
     <col min="4" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3578,7 +3325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3592,7 +3339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -3601,13 +3348,10 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -3620,13 +3364,8 @@
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -3647,20 +3386,8 @@
         <v>0.11957</v>
       </c>
       <c r="J5" s="10"/>
-      <c r="L5" s="24">
-        <f>-F6</f>
-        <v>0.11</v>
-      </c>
-      <c r="M5" s="24">
-        <f>G6</f>
-        <v>0.18820000000000001</v>
-      </c>
-      <c r="N5" s="24">
-        <f>H6</f>
-        <v>0.11957</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -3678,20 +3405,8 @@
       <c r="H6" s="10">
         <v>0.11957</v>
       </c>
-      <c r="L6" s="24">
-        <f>-F5</f>
-        <v>-6.6239999999999993E-2</v>
-      </c>
-      <c r="M6" s="24">
-        <f>G5</f>
-        <v>0.16783000000000001</v>
-      </c>
-      <c r="N6" s="24">
-        <f>H5</f>
-        <v>0.11957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -3710,20 +3425,8 @@
         <v>0.15789</v>
       </c>
       <c r="J7" s="21"/>
-      <c r="L7" s="24">
-        <f>-F7</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="M7" s="24">
-        <f t="shared" ref="M7:N7" si="0">G7</f>
-        <v>0.58015000000000005</v>
-      </c>
-      <c r="N7" s="24">
-        <f t="shared" si="0"/>
-        <v>0.15789</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>12</v>
@@ -3734,14 +3437,11 @@
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="10"/>
-      <c r="H8" s="27">
+      <c r="H8" s="23">
         <v>5.8056599999999996</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -3762,20 +3462,8 @@
         <v>0.24857000000000001</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="L9" s="24">
-        <f>-F10</f>
-        <v>0.12769</v>
-      </c>
-      <c r="M9" s="24">
-        <f>G10</f>
-        <v>0.26199</v>
-      </c>
-      <c r="N9" s="24">
-        <f>H10</f>
-        <v>0.22857</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>13</v>
@@ -3793,20 +3481,8 @@
       <c r="H10" s="10">
         <v>0.22857</v>
       </c>
-      <c r="L10" s="24">
-        <f>-F9</f>
-        <v>-5.6000000000000001E-2</v>
-      </c>
-      <c r="M10" s="24">
-        <f>G9</f>
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="N10" s="24">
-        <f>H9</f>
-        <v>0.24857000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -3824,20 +3500,8 @@
       <c r="H11" s="10">
         <v>0.31677</v>
       </c>
-      <c r="L11" s="24">
-        <f>-F11</f>
-        <v>0.03</v>
-      </c>
-      <c r="M11" s="24">
-        <f t="shared" ref="M11:N11" si="1">G11</f>
-        <v>0.56625999999999999</v>
-      </c>
-      <c r="N11" s="24">
-        <f t="shared" si="1"/>
-        <v>0.31677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>12</v>
@@ -3848,11 +3512,11 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="27">
+      <c r="H12" s="23">
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -3872,20 +3536,8 @@
       <c r="H13" s="10">
         <v>0.22513</v>
       </c>
-      <c r="L13" s="24">
-        <f>-F13</f>
-        <v>1.4279999999999999E-2</v>
-      </c>
-      <c r="M13" s="24">
-        <f t="shared" ref="M13:N14" si="2">G13</f>
-        <v>0.58972999999999998</v>
-      </c>
-      <c r="N13" s="24">
-        <f t="shared" si="2"/>
-        <v>0.22513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>19</v>
@@ -3894,29 +3546,17 @@
       <c r="D14" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="23">
         <v>0</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="24">
         <v>0.61899999999999999</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="23">
         <v>0.23322999999999999</v>
       </c>
-      <c r="L14" s="24">
-        <f>-F14</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="24">
-        <f t="shared" si="2"/>
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="N14" s="24">
-        <f t="shared" si="2"/>
-        <v>0.23322999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>12</v>
@@ -3931,7 +3571,7 @@
         <v>1.0491900000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>20</v>
@@ -3946,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>22</v>
@@ -3961,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>23</v>
@@ -3979,7 +3619,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>25</v>
@@ -3997,7 +3637,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>27</v>
@@ -4012,32 +3652,34 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="10">
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="26">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="26">
         <v>0.17899999999999999</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="26">
         <v>0.11927</v>
       </c>
-      <c r="J21" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J21" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>14</v>
@@ -4055,11 +3697,8 @@
       <c r="H22" s="10">
         <v>0.15639</v>
       </c>
-      <c r="L22" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>12</v>
@@ -4070,14 +3709,11 @@
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
-      <c r="H23" s="27">
+      <c r="H23" s="23">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L23" s="23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
@@ -4088,66 +3724,51 @@
       <c r="D24" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="22">
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="25">
         <v>-0.03</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="25">
         <v>0.22</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="25">
         <v>0.28000000000000003</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="25">
-        <f>-F24</f>
-        <v>0.03</v>
-      </c>
-      <c r="M24" s="25">
-        <f>G24</f>
-        <v>0.22</v>
-      </c>
-      <c r="N24" s="25">
-        <f>H24</f>
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="22">
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="25">
         <v>-0.03</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="25">
         <v>0.25</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="25">
         <v>0.1</v>
       </c>
-      <c r="L25" s="25">
-        <f>-F25</f>
-        <v>0.03</v>
-      </c>
-      <c r="M25" s="25">
-        <f>G25</f>
-        <v>0.25</v>
-      </c>
-      <c r="N25" s="25">
-        <f>H25</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J25" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
@@ -4159,10 +3780,10 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -4174,86 +3795,100 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>36</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>37</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
         <v>12</v>
       </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="10">
+      <c r="H28" s="27">
         <v>0.03</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
         <v>12</v>
       </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="10">
+      <c r="H29" s="27">
         <v>-0.03</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J29" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A31">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B29">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E29">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28:J29">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Linkage/DW_B/sm_car_data_Linkage_DW_B.xlsx
+++ b/Libraries/Vehicle/Linkage/DW_B/sm_car_data_Linkage_DW_B.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\DW_B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4099C25-2AAA-43EB-9667-83B8C71F74A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE4557C-39BF-4D2A-A9AF-935CB909AFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43950" yWindow="0" windowWidth="13755" windowHeight="15585" tabRatio="913" activeTab="3" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
+    <workbookView xWindow="390" yWindow="0" windowWidth="21600" windowHeight="15585" tabRatio="1000" activeTab="3" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
   </bookViews>
   <sheets>
-    <sheet name="DWB_Sedan_HambaLG_f" sheetId="8" r:id="rId1"/>
+    <sheet name="DW_Sedan_HambaLG_f" sheetId="8" r:id="rId1"/>
     <sheet name="DW_Sedan_HambaLG_r" sheetId="9" r:id="rId2"/>
     <sheet name="DW_Sedan_Hamba_f" sheetId="7" r:id="rId3"/>
-    <sheet name="DW_Bus_Makulu_f" sheetId="6" r:id="rId4"/>
-    <sheet name="DW_FSAE_Achilles_f" sheetId="10" r:id="rId5"/>
+    <sheet name="DW_SUV_Landy_f" sheetId="11" r:id="rId4"/>
+    <sheet name="DW_Bus_Makulu_f" sheetId="6" r:id="rId5"/>
+    <sheet name="DW_FSAE_Achilles_f" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="53">
   <si>
     <t>Units</t>
   </si>
@@ -190,6 +191,15 @@
   </si>
   <si>
     <t>Must be consistent with values in Spring, Damper</t>
+  </si>
+  <si>
+    <t>sARB</t>
+  </si>
+  <si>
+    <t>Must be same as AntiRollBar.sSuspension for attachment to LowerArm</t>
+  </si>
+  <si>
+    <t>DoubleWishbone_SUV_Landy_f</t>
   </si>
 </sst>
 </file>
@@ -227,7 +237,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,6 +277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,24 +343,17 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -831,10 +840,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:J25"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -848,7 +857,7 @@
     <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -868,7 +877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -882,7 +891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -894,7 +903,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -908,7 +917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -929,7 +938,7 @@
         <v>0.19097000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -948,7 +957,7 @@
         <v>0.2452914285714286</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -967,169 +976,182 @@
         <v>0.18855571428571433</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10">
-        <v>5.8056599999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F8" s="27">
+        <v>-0.05</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.16634428571428575</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.63060000000000005</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="10">
-        <v>0.53609214285714291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+        <v>5.8056599999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="10">
-        <v>-0.18372714285714289</v>
+        <v>0.16634428571428575</v>
       </c>
       <c r="G10" s="10">
         <v>0.63060000000000005</v>
       </c>
       <c r="H10" s="10">
-        <v>0.51255285714285714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.53609214285714291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="10">
-        <v>-4.8285714285714293E-2</v>
+        <v>-0.18372714285714289</v>
       </c>
       <c r="G11" s="10">
-        <v>0.89280000000000004</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="H11" s="10">
-        <v>0.54321428571428576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.51255285714285714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="10">
+        <v>-4.8285714285714293E-2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.89280000000000004</v>
+      </c>
       <c r="H12" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>0.54321428571428576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10">
-        <v>9.4157142857142894E-3</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.89449999999999996</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10">
-        <v>0.42648357142857141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="10">
-        <v>0</v>
+        <v>9.4157142857142894E-3</v>
       </c>
       <c r="G14" s="10">
-        <v>0.99209999999999998</v>
+        <v>0.89449999999999996</v>
       </c>
       <c r="H14" s="10">
-        <v>0.36214285714285716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.42648357142857141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.99209999999999998</v>
+      </c>
       <c r="H15" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.36214285714285716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10">
-        <v>0</v>
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" t="s">
@@ -1144,146 +1166,136 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>29</v>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="26">
-        <v>0.15379999999999999</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0.65</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0.24</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <v>1.76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>14</v>
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="10">
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="24">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G22" s="10">
-        <v>0.91</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.23</v>
+      <c r="G22" s="24">
+        <v>0.65</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.91</v>
+      </c>
       <c r="H23" s="10">
-        <v>5.2778799999999997</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>31</v>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="25">
-        <v>-2.6557142857142869E-3</v>
-      </c>
-      <c r="G24" s="28">
-        <v>0.62</v>
-      </c>
-      <c r="H24" s="28">
-        <v>0.65</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="B25" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" t="s">
@@ -1292,38 +1304,48 @@
       <c r="E25" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="25">
-        <v>5.5166428571428582E-2</v>
-      </c>
-      <c r="G25" s="28">
-        <v>0.85</v>
-      </c>
-      <c r="H25" s="28">
-        <v>0.19</v>
+      <c r="F25" s="23">
+        <v>-2.6557142857142869E-3</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0.62</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0.65</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
-        <v>33</v>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10">
-        <v>3.6529410000000002</v>
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="23">
+        <v>5.5166428571428582E-2</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0.85</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -1332,36 +1354,30 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>36</v>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="B29" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
@@ -1372,32 +1388,37 @@
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="27">
-        <v>-0.15</v>
+      <c r="H29" s="25">
+        <v>0.1</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="17" t="s">
-        <v>39</v>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="25">
+        <v>-0.15</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
@@ -1411,24 +1432,40 @@
         <v>39</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A30:A31">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="equal">
+  <conditionalFormatting sqref="A31:A32">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B29">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+  <conditionalFormatting sqref="A25:B30">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:J29">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+  <conditionalFormatting sqref="E25:E30">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E29">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1444,7 +1481,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:J25"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,13 +1853,13 @@
       <c r="E21" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="24">
         <v>0.13</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="24">
         <v>0.65</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="24">
         <v>0.24</v>
       </c>
       <c r="J21" s="22" t="s">
@@ -1877,13 +1914,13 @@
       <c r="E24" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="23">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="26">
         <v>0.62</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="26">
         <v>0.65</v>
       </c>
       <c r="J24" s="14" t="s">
@@ -1902,13 +1939,13 @@
       <c r="E25" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="23">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G25" s="28">
+      <c r="G25" s="26">
         <v>0.85</v>
       </c>
-      <c r="H25" s="28">
+      <c r="H25" s="26">
         <v>0.19</v>
       </c>
       <c r="J25" s="14" t="s">
@@ -1961,7 +1998,7 @@
       </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="27">
+      <c r="H28" s="25">
         <v>0.1</v>
       </c>
       <c r="J28" s="16" t="s">
@@ -1982,7 +2019,7 @@
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="27">
+      <c r="H29" s="25">
         <v>-0.15</v>
       </c>
       <c r="J29" s="16" t="s">
@@ -2023,22 +2060,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A31">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B29">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E29">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J29">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E29">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2052,10 +2089,1345 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:J25"/>
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-0.125</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="27">
+        <v>-0.05</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <v>5.8056599999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-0.105</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10">
+        <v>-0.04</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.68720000000000003</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.73</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0.13708300000000001</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0.439</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.14208299999999999</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="23">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G25" s="23">
+        <v>0.49198500000000001</v>
+      </c>
+      <c r="H25" s="23">
+        <v>0.52585999999999999</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="23">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G26" s="23">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H26" s="23">
+        <v>0.15</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
+        <v>3.6529410000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
+        <v>4.3157700000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A31:A32">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:B30">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E30">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867AAE58-AD55-439E-9CC3-0278C46FFE29}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:H30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0.29913000000000006</v>
+      </c>
+      <c r="G5" s="10">
+        <f>0.4406-0.25</f>
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.19097000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10">
+        <v>-0.18372714285714289</v>
+      </c>
+      <c r="G6" s="10">
+        <f>0.4406-0.25</f>
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.2452914285714286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10">
+        <v>5.2872857142857145E-2</v>
+      </c>
+      <c r="G7" s="10">
+        <f>0.8971-0.25</f>
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.18855571428571433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="27">
+        <v>-0.05</v>
+      </c>
+      <c r="G8" s="27">
+        <f>0.75-0.25</f>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0.15</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10">
+        <v>5.8056599999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.16634428571428575</v>
+      </c>
+      <c r="G10" s="10">
+        <f>0.6306-0.25</f>
+        <v>0.38060000000000005</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.53609214285714291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10">
+        <v>-0.18372714285714289</v>
+      </c>
+      <c r="G11" s="10">
+        <f>0.6306-0.25</f>
+        <v>0.38060000000000005</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.51255285714285714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10">
+        <v>-4.8285714285714293E-2</v>
+      </c>
+      <c r="G12" s="10">
+        <f>0.8928-0.25</f>
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.54321428571428576</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="10">
+        <v>9.4157142857142894E-3</v>
+      </c>
+      <c r="G14" s="10">
+        <f>0.8945-0.25</f>
+        <v>0.64449999999999996</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.42648357142857141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.74295</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G22" s="24">
+        <f>0.65-0.25</f>
+        <v>0.4</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0.24</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G23" s="10">
+        <f>0.91-0.25</f>
+        <v>0.66</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="23">
+        <v>-2.6557142857142869E-3</v>
+      </c>
+      <c r="G25" s="26">
+        <f>0.62-0.25</f>
+        <v>0.37</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0.65</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="23">
+        <v>5.5166428571428582E-2</v>
+      </c>
+      <c r="G26" s="26">
+        <f>0.85-0.25</f>
+        <v>0.6</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0.19</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
+        <v>3.6529410000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
+        <v>4.3157700000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="25">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="25">
+        <v>-0.115</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.99209999999999998</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.36214285714285716</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="20">
+        <f>G36-G15</f>
+        <v>0.24914999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A31:A32">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:B30">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25:E30">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6596A4DF-27EE-4D62-82A2-4C2584271E08}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,7 +3442,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2090,7 +3462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2104,7 +3476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2113,10 +3485,10 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2130,7 +3502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -2142,17 +3514,17 @@
         <v>12</v>
       </c>
       <c r="F5" s="10">
-        <v>0.22500000000000001</v>
+        <v>0.24780000000000002</v>
       </c>
       <c r="G5" s="10">
-        <v>0.30599999999999999</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="H5" s="10">
-        <v>0.15</v>
+        <v>0.28386149999999999</v>
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -2162,16 +3534,16 @@
         <v>12</v>
       </c>
       <c r="F6" s="10">
-        <v>-0.125</v>
+        <v>-0.1522</v>
       </c>
       <c r="G6" s="10">
-        <v>0.30599999999999999</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="H6" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.2338615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -2181,180 +3553,194 @@
         <v>12</v>
       </c>
       <c r="F7" s="10">
-        <v>1.4999999999999999E-2</v>
+        <v>4.3800000000000006E-2</v>
       </c>
       <c r="G7" s="10">
-        <v>0.76600000000000001</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="H7" s="10">
-        <v>0.15</v>
+        <v>0.29246149999999999</v>
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10">
-        <v>5.8056599999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F8" s="27">
+        <v>-0.05</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.45100000000000001</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="10">
-        <v>0.43</v>
-      </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+        <v>5.8056599999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="10">
-        <v>-0.105</v>
+        <v>0.24780000000000002</v>
       </c>
       <c r="G10" s="10">
-        <v>0.45100000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="H10" s="10">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.68656149999999994</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="10">
-        <v>-0.04</v>
+        <v>-0.1522</v>
       </c>
       <c r="G11" s="10">
-        <v>0.68720000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="H11" s="10">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.68656149999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="10">
+        <v>-0.04</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.79070000000000007</v>
+      </c>
       <c r="H12" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>0.68656149999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.73</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="10">
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0.78749999999999998</v>
+        <v>7.8000000000000014E-3</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.79239999999999999</v>
       </c>
       <c r="H14" s="10">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.48956149999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.9829099</v>
+      </c>
       <c r="H15" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.46136149999999998</v>
+      </c>
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10">
-        <v>0</v>
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" t="s">
@@ -2369,147 +3755,136 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10">
-        <v>1.76</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>29</v>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="26">
-        <v>0.13708300000000001</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0.439</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <v>1.76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>14</v>
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="10">
-        <v>0.14208299999999999</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.185</v>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0.2238</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0.36</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0.33</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0.21380000000000002</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.75080000000000002</v>
+      </c>
       <c r="H23" s="10">
-        <v>5.2778799999999997</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>31</v>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="25">
-        <f>-0.000217+0.05</f>
-        <v>4.9783000000000001E-2</v>
-      </c>
-      <c r="G24" s="25">
-        <v>0.49198500000000001</v>
-      </c>
-      <c r="H24" s="25">
-        <v>0.52585999999999999</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="B25" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" t="s">
@@ -2518,39 +3893,50 @@
       <c r="E25" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="25">
-        <f>-0.000217+0.05</f>
-        <v>4.9783000000000001E-2</v>
-      </c>
-      <c r="G25" s="25">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="H25" s="25">
-        <v>0.15</v>
+      <c r="F25" s="26">
+        <f>-0.0022+0.02</f>
+        <v>1.78E-2</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0.68</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0.73380000000000001</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
-        <v>33</v>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10">
-        <v>3.6529410000000002</v>
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="26">
+        <f>0.0457+0.02</f>
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -2559,36 +3945,30 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>36</v>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="B29" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
@@ -2599,32 +3979,37 @@
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="27">
-        <v>-0.1</v>
+      <c r="H29" s="25">
+        <v>0.1</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="17" t="s">
-        <v>39</v>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="25">
+        <v>-0.1</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
@@ -2638,24 +4023,40 @@
         <v>39</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A30:A31">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+  <conditionalFormatting sqref="A31:A32">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B29">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+  <conditionalFormatting sqref="A25:B30">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:J29">
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+  <conditionalFormatting sqref="E25:E30">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E29">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2664,15 +4065,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6596A4DF-27EE-4D62-82A2-4C2584271E08}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E499C5-DF72-445F-893F-77DA81B9CAF3}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2687,7 +4088,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2707,7 +4108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2721,7 +4122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -2730,10 +4131,10 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2747,7 +4148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -2759,17 +4160,17 @@
         <v>12</v>
       </c>
       <c r="F5" s="10">
-        <v>0.24780000000000002</v>
+        <v>6.6239999999999993E-2</v>
       </c>
       <c r="G5" s="10">
-        <v>0.23499999999999999</v>
+        <v>0.16783000000000001</v>
       </c>
       <c r="H5" s="10">
-        <v>0.28386149999999999</v>
+        <v>0.11957</v>
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>13</v>
@@ -2779,16 +4180,16 @@
         <v>12</v>
       </c>
       <c r="F6" s="10">
-        <v>-0.1522</v>
+        <v>-0.11</v>
       </c>
       <c r="G6" s="10">
-        <v>0.23499999999999999</v>
+        <v>0.18820000000000001</v>
       </c>
       <c r="H6" s="10">
-        <v>0.2338615</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.11957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -2798,181 +4199,193 @@
         <v>12</v>
       </c>
       <c r="F7" s="10">
-        <v>4.3800000000000006E-2</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="G7" s="10">
-        <v>0.79500000000000004</v>
+        <v>0.58015000000000005</v>
       </c>
       <c r="H7" s="10">
-        <v>0.29246149999999999</v>
+        <v>0.15789</v>
       </c>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10">
-        <v>5.8056599999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0.06</v>
+      </c>
+      <c r="G8" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="27">
+        <v>0.13</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.24780000000000002</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.52</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="10">
-        <v>0.68656149999999994</v>
-      </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+        <v>5.8056599999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="B10" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="10">
-        <v>-0.1522</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="G10" s="10">
-        <v>0.52</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="H10" s="10">
-        <v>0.68656149999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.24857000000000001</v>
+      </c>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="10">
-        <v>-0.04</v>
+        <v>-0.12769</v>
       </c>
       <c r="G11" s="10">
-        <v>0.79070000000000007</v>
+        <v>0.26199</v>
       </c>
       <c r="H11" s="10">
-        <v>0.68656149999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.22857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F12" s="10">
+        <v>-0.03</v>
+      </c>
+      <c r="G12" s="10">
+        <v>0.56625999999999999</v>
+      </c>
       <c r="H12" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
+        <v>0.31677</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10">
-        <v>7.8000000000000014E-3</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.79239999999999999</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="10">
-        <v>0.48956149999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+        <v>5.2778799999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="B14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="10">
-        <v>0</v>
+        <v>-1.4279999999999999E-2</v>
       </c>
       <c r="G14" s="10">
-        <v>0.9829099</v>
+        <v>0.58972999999999998</v>
       </c>
       <c r="H14" s="10">
-        <v>0.46136149999999998</v>
-      </c>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.22513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F15" s="10">
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0.61899999999999999</v>
+      </c>
       <c r="H15" s="10">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.23322999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10">
-        <v>0</v>
+        <v>1.0491900000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" t="s">
@@ -2987,188 +4400,186 @@
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" t="s">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10">
-        <v>1.76</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>29</v>
+      <c r="A21" s="8"/>
+      <c r="B21" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="26">
-        <v>0.2238</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0.36</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0.33</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>46</v>
+        <v>15</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10">
+        <v>1.76</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>14</v>
+      <c r="A22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="10">
-        <v>0.21380000000000002</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0.75080000000000002</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.32</v>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="24">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="G22" s="24">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0.11927</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="F23" s="10">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.59245999999999999</v>
+      </c>
       <c r="H23" s="10">
-        <v>5.2778799999999997</v>
+        <v>0.15639</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>31</v>
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="28">
-        <f>-0.0022+0.02</f>
-        <v>1.78E-2</v>
-      </c>
-      <c r="G24" s="28">
-        <v>0.68</v>
-      </c>
-      <c r="H24" s="28">
-        <v>0.73380000000000001</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10">
+        <v>5.2778799999999997</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="B25" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="28">
-        <f>0.0457+0.02</f>
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="G25" s="28">
-        <v>0.74</v>
-      </c>
-      <c r="H25" s="28">
-        <v>0.28999999999999998</v>
+        <v>48</v>
+      </c>
+      <c r="F25" s="23">
+        <v>-0.03</v>
+      </c>
+      <c r="G25" s="23">
+        <v>0.22</v>
+      </c>
+      <c r="H25" s="23">
+        <v>0.28000000000000003</v>
       </c>
       <c r="J25" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
-        <v>33</v>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10">
-        <v>3.6529410000000002</v>
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="23">
+        <v>-0.03</v>
+      </c>
+      <c r="G26" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="H26" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" t="s">
@@ -3177,36 +4588,30 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10">
-        <v>4.3157700000000006</v>
+        <v>3.6529410000000002</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>36</v>
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="27">
-        <v>0.1</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10">
+        <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+      <c r="A29" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="B29" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" t="s">
@@ -3217,32 +4622,37 @@
       </c>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="27">
-        <v>-0.1</v>
+      <c r="H29" s="25">
+        <v>0.03</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="17" t="s">
-        <v>39</v>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="25">
+        <v>-0.03</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>8</v>
@@ -3256,639 +4666,40 @@
         <v>39</v>
       </c>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A30:A31">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+  <conditionalFormatting sqref="A31:A32">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B29">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+  <conditionalFormatting sqref="A25:B30">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28:J29">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+  <conditionalFormatting sqref="E25:E30">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E29">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E499C5-DF72-445F-893F-77DA81B9CAF3}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:J31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24:J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="18" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" customWidth="1"/>
-    <col min="4" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="10">
-        <v>6.6239999999999993E-2</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0.16783000000000001</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.11957</v>
-      </c>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="10">
-        <v>-0.11</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0.18820000000000001</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.11957</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.58015000000000005</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.15789</v>
-      </c>
-      <c r="J7" s="21"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="23">
-        <v>5.8056599999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="10">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.24857000000000001</v>
-      </c>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10">
-        <v>-0.12769</v>
-      </c>
-      <c r="G10" s="10">
-        <v>0.26199</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.22857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="10">
-        <v>-0.03</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0.56625999999999999</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.31677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="23">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10">
-        <v>-1.4279999999999999E-2</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0.58972999999999998</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.22513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0.23322999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10">
-        <v>1.0491900000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10">
-        <v>1.76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="26">
-        <v>9.0499999999999997E-2</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0.11927</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="10">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0.59245999999999999</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.15639</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="23">
-        <v>5.2778799999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="25">
-        <v>-0.03</v>
-      </c>
-      <c r="G24" s="25">
-        <v>0.22</v>
-      </c>
-      <c r="H24" s="25">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="25">
-        <v>-0.03</v>
-      </c>
-      <c r="G25" s="25">
-        <v>0.25</v>
-      </c>
-      <c r="H25" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10">
-        <v>3.6529410000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10">
-        <v>4.3157700000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="27">
-        <v>0.03</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="27">
-        <v>-0.03</v>
-      </c>
-      <c r="J29" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A30:A31">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24:B29">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24:E29">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28:J29">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="J29:J30">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
